--- a/output/Roboto/article5_Roboto.xlsx
+++ b/output/Roboto/article5_Roboto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>biophysicist double helix.</t>
+          <t xml:space="preserve">biophysicist </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="C2" t="n">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="D2" t="n">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -482,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3D model </t>
+          <t xml:space="preserve">double </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168</v>
+        <v>564</v>
       </c>
       <c r="C3" t="n">
-        <v>851</v>
+        <v>694</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -501,19 +501,114 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">human genome, </t>
+          <t>helix.</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>627</v>
+      </c>
+      <c r="C4" t="n">
+        <v>694</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3D </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>168</v>
+      </c>
+      <c r="C5" t="n">
+        <v>851.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">model </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>198</v>
+      </c>
+      <c r="C6" t="n">
+        <v>851.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>58</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">human </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>350</v>
       </c>
-      <c r="C4" t="n">
-        <v>1173</v>
-      </c>
-      <c r="D4" t="n">
-        <v>144</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C7" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D7" t="n">
+        <v>64</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genome, </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>414</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">discrimination. </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>243</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1242.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>128</v>
+      </c>
+      <c r="E9" t="n">
         <v>23</v>
       </c>
     </row>
